--- a/Excel_tabellen/Book2.xlsx
+++ b/Excel_tabellen/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1179e4601216dc0c/SDN-Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k42br\Desktop\Projekt\github\git\Excel_tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{FBEB2B59-5469-4B05-BFFD-9299FBD1F9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE94A94-FE2B-47E0-A655-241EF11FFD6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5915B-F0DD-4EAD-BE22-545D6642594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>Provider</t>
   </si>
@@ -285,12 +285,6 @@
     <t>430/ 450/ 500</t>
   </si>
   <si>
-    <t>Verfügbarkeit</t>
-  </si>
-  <si>
-    <t>&gt; 99,5 %</t>
-  </si>
-  <si>
     <t>Glasfaser 500</t>
   </si>
   <si>
@@ -301,32 +295,6 @@
   </si>
   <si>
     <t>215/ 225/ 240</t>
-  </si>
-  <si>
-    <r>
-      <t>Preis (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>netto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Standleitung</t>
@@ -379,13 +347,16 @@
   </si>
   <si>
     <t xml:space="preserve">städtischen Gebieten 429 Euro netto p.m. </t>
+  </si>
+  <si>
+    <t>Preis (netto)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,28 +373,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF616161"/>
-      <name val="Roboto"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF003666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF757575"/>
-      <name val="Roboto"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF757575"/>
-      <name val="Roboto"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,14 +394,11 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF757575"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF003666"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="5">
@@ -450,24 +410,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -477,45 +437,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDFDFDF"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FFDFDFDF"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDFDFDF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFDFDFDF"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,66 +455,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,44 +792,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -949,13 +837,12 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -967,13 +854,12 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -985,13 +871,12 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1003,29 +888,27 @@
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1035,38 +918,36 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1078,13 +959,12 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1096,13 +976,12 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" t="s">
+      <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1114,31 +993,27 @@
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1147,25 +1022,22 @@
       <c r="C14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1177,13 +1049,12 @@
       <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" t="s">
+      <c r="E16" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1195,13 +1066,12 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" t="s">
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1213,13 +1083,12 @@
       <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1231,20 +1100,19 @@
       <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" t="s">
+      <c r="E19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1256,13 +1124,12 @@
       <c r="D21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" t="s">
+      <c r="E21" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1274,13 +1141,12 @@
       <c r="D22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" t="s">
+      <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1292,114 +1158,105 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" t="s">
+      <c r="E23" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" t="s">
+      <c r="E24" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="20" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>106</v>
+      <c r="A33" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AE606CD8-8303-42D1-A968-C21B9555CEE1}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{5255D7EA-2E34-4E6B-B69A-2582A49BC4CE}"/>
-    <hyperlink ref="A16" r:id="rId3" xr:uid="{4D07A0C2-F153-4DBD-900E-D7F7520F602E}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{13A53409-9F19-4FCE-BA62-0ABEDB29C18B}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{E35593EE-F640-4E9E-85DA-60D6FC06BFE7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>